--- a/7.单总线CPU/单总线实验资料包(愚人节版)/5.单总线MIPS硬布线控制器状态机逻辑自动生成(2020-4-1).xlsx
+++ b/7.单总线CPU/单总线实验资料包(愚人节版)/5.单总线MIPS硬布线控制器状态机逻辑自动生成(2020-4-1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\3 大三\计算机组成原理\Logisim\hustzc\7.单总线CPU\单总线实验资料包(愚人节版)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7F6BBF-9914-4168-8882-DE8A80A26BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B289A-BD03-45BF-A2F5-16585FE762F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,8 +1383,8 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V45" sqref="V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3183,79 +3183,87 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="str">
+      <c r="A33" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B33" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="B33" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C33" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D33" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E33" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F33" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="48">
+        <v>3</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="L33" s="18">
+        <v>1</v>
+      </c>
       <c r="M33" s="18"/>
       <c r="N33" s="43"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="11" t="str">
+      <c r="O33" s="44">
+        <v>25</v>
+      </c>
+      <c r="P33" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q33" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R33" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R33" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S33" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S33" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T33" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="str">
+      <c r="A34" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B34" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="B34" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C34" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="C34" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D34" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="D34" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E34" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E34" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F34" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="55">
+        <v>25</v>
+      </c>
       <c r="G34" s="56"/>
       <c r="H34" s="57"/>
       <c r="I34" s="57"/>
@@ -3264,50 +3272,54 @@
       <c r="L34" s="57"/>
       <c r="M34" s="57"/>
       <c r="N34" s="58"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="54" t="str">
+      <c r="O34" s="59">
+        <v>0</v>
+      </c>
+      <c r="P34" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q34" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R34" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="R34" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S34" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S34" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T34" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="T34" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="str">
+      <c r="A35" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B35" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C35" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E35" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F35" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="48">
+        <v>26</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3316,50 +3328,54 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="43"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="11" t="str">
+      <c r="O35" s="44">
+        <v>27</v>
+      </c>
+      <c r="P35" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q35" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R35" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R35" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S35" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S35" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T35" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="T35" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="str">
+      <c r="A36" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B36" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="B36" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C36" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="C36" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D36" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="D36" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E36" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="E36" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F36" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="55">
+        <v>27</v>
+      </c>
       <c r="G36" s="56"/>
       <c r="H36" s="57"/>
       <c r="I36" s="57"/>
@@ -3368,546 +3384,616 @@
       <c r="L36" s="57"/>
       <c r="M36" s="57"/>
       <c r="N36" s="58"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="54" t="str">
+      <c r="O36" s="59">
+        <v>0</v>
+      </c>
+      <c r="P36" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q36" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R36" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="R36" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S36" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S36" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T36" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="T36" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="str">
+      <c r="A37" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B37" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="B37" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C37" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D37" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E37" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F37" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="48">
+        <v>8</v>
+      </c>
       <c r="G37" s="17"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+      <c r="M37" s="18">
+        <v>1</v>
+      </c>
       <c r="N37" s="43"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="11" t="str">
+      <c r="O37" s="44">
+        <v>26</v>
+      </c>
+      <c r="P37" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q37" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R37" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R37" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S37" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T37" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="T37" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="str">
+      <c r="A38" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B38" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="B38" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C38" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="C38" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E38" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E38" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="55">
+        <v>13</v>
+      </c>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
+      <c r="M38" s="57">
+        <v>1</v>
+      </c>
       <c r="N38" s="58"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="54" t="str">
+      <c r="O38" s="59">
+        <v>26</v>
+      </c>
+      <c r="P38" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q38" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R38" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="R38" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S38" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S38" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T38" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="T38" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="str">
+      <c r="A39" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B39" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="B39" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C39" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D39" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E39" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F39" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="48">
+        <v>15</v>
+      </c>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="11" t="str">
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="43">
+        <v>0</v>
+      </c>
+      <c r="O39" s="44">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q39" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R39" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="R39" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S39" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S39" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T39" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="T39" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="str">
+      <c r="A40" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B40" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="B40" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C40" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="C40" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D40" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D40" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E40" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="E40" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F40" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="55">
+        <v>15</v>
+      </c>
       <c r="G40" s="56"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="54" t="str">
+      <c r="M40" s="57">
+        <v>0</v>
+      </c>
+      <c r="N40" s="58">
+        <v>1</v>
+      </c>
+      <c r="O40" s="59">
+        <v>16</v>
+      </c>
+      <c r="P40" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q40" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R40" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="R40" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S40" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S40" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T40" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="T40" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="str">
+      <c r="A41" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B41" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C41" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D41" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E41" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F41" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="48">
+        <v>15</v>
+      </c>
       <c r="G41" s="17"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="11" t="str">
+      <c r="M41" s="18">
+        <v>1</v>
+      </c>
+      <c r="N41" s="43">
+        <v>0</v>
+      </c>
+      <c r="O41" s="44">
+        <v>26</v>
+      </c>
+      <c r="P41" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q41" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R41" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R41" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S41" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S41" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T41" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="T41" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="str">
+      <c r="A42" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B42" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="B42" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C42" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="C42" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D42" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D42" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E42" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="E42" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F42" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="55">
+        <v>15</v>
+      </c>
       <c r="G42" s="56"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="54" t="str">
+      <c r="M42" s="57">
+        <v>1</v>
+      </c>
+      <c r="N42" s="58">
+        <v>1</v>
+      </c>
+      <c r="O42" s="59">
+        <v>16</v>
+      </c>
+      <c r="P42" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q42" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R42" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="R42" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S42" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S42" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T42" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="T42" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="str">
+      <c r="A43" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B43" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C43" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D43" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E43" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F43" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="48">
+        <v>18</v>
+      </c>
       <c r="G43" s="17"/>
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
+      <c r="M43" s="18">
+        <v>1</v>
+      </c>
       <c r="N43" s="43"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="11" t="str">
+      <c r="O43" s="44">
+        <v>26</v>
+      </c>
+      <c r="P43" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q43" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R43" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R43" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S43" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T43" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="T43" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="str">
+      <c r="A44" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B44" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="B44" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C44" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="C44" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D44" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D44" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E44" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E44" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F44" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="55">
+        <v>21</v>
+      </c>
       <c r="G44" s="56"/>
       <c r="H44" s="57"/>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="M44" s="57">
+        <v>1</v>
+      </c>
       <c r="N44" s="58"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="54" t="str">
+      <c r="O44" s="59">
+        <v>26</v>
+      </c>
+      <c r="P44" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q44" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R44" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="R44" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S44" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S44" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T44" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="T44" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="str">
+      <c r="A45" s="11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B45" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B45" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C45" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D45" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E45" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F45" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="48">
+        <v>24</v>
+      </c>
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
+      <c r="M45" s="18">
+        <v>1</v>
+      </c>
       <c r="N45" s="43"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="11" t="str">
+      <c r="O45" s="44">
+        <v>26</v>
+      </c>
+      <c r="P45" s="11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q45" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R45" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="R45" s="11">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S45" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T45" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="T45" s="12">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="str">
+      <c r="A46" s="54">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B46" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="B46" s="54">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C46" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="C46" s="54">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D46" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="D46" s="54">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E46" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E46" s="54">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F46" s="55"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="55">
+        <v>25</v>
+      </c>
       <c r="G46" s="56"/>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
+      <c r="M46" s="57">
+        <v>1</v>
+      </c>
       <c r="N46" s="58"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="54" t="str">
+      <c r="O46" s="59">
+        <v>26</v>
+      </c>
+      <c r="P46" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q46" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="54">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R46" s="54" t="str">
+        <v>1</v>
+      </c>
+      <c r="R46" s="54">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S46" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S46" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="T46" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="T46" s="60">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="16.2" x14ac:dyDescent="0.25">
@@ -4114,8 +4200,8 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
@@ -6548,23 +6634,23 @@
     <row r="32" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="str">
         <f>IF(状态转换表!A33=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A33=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B32" s="24" t="str">
         <f>IF(状态转换表!B33=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B33=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="C32" s="28" t="str">
         <f>IF(状态转换表!C33=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C33=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D32" s="28" t="str">
         <f>IF(状态转换表!D33=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D33=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>IF(状态转换表!E33=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E33=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F32" s="30" t="str">
         <f>IF(状态转换表!G33&lt;&gt;"",IF(状态转换表!G33=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G33=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -6588,7 +6674,7 @@
       </c>
       <c r="K32" s="28" t="str">
         <f>IF(状态转换表!L33&lt;&gt;"",IF(状态转换表!L33=1,状态转换表!L$2&amp;"&amp;",IF(状态转换表!L33=0,"~"&amp;状态转换表!L$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>ERET&amp;</v>
       </c>
       <c r="L32" s="28" t="str">
         <f>IF(状态转换表!M33&lt;&gt;"",IF(状态转换表!M33=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M33=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
@@ -6600,15 +6686,15 @@
       </c>
       <c r="N32" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET</v>
       </c>
       <c r="O32" s="1" t="str">
         <f>IF(状态转换表!P33=1,$N32&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+</v>
       </c>
       <c r="P32" s="1" t="str">
         <f>IF(状态转换表!Q33=1,$N32&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+</v>
       </c>
       <c r="Q32" s="2" t="str">
         <f>IF(状态转换表!R33=1,$N32&amp;"+","")</f>
@@ -6620,29 +6706,29 @@
       </c>
       <c r="S32" s="2" t="str">
         <f>IF(状态转换表!T33=1,$N32&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="str">
         <f>IF(状态转换表!A34=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A34=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B33" s="24" t="str">
         <f>IF(状态转换表!B34=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B34=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C33" s="28" t="str">
         <f>IF(状态转换表!C34=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C34=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D33" s="28" t="str">
         <f>IF(状态转换表!D34=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D34=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>IF(状态转换表!E34=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E34=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F33" s="30" t="str">
         <f>IF(状态转换表!G34&lt;&gt;"",IF(状态转换表!G34=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G34=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -6678,7 +6764,7 @@
       </c>
       <c r="N33" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;S0</v>
       </c>
       <c r="O33" s="1" t="str">
         <f>IF(状态转换表!P34=1,$N33&amp;"+","")</f>
@@ -6704,23 +6790,23 @@
     <row r="34" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="str">
         <f>IF(状态转换表!A35=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A35=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B34" s="24" t="str">
         <f>IF(状态转换表!B35=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B35=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C34" s="28" t="str">
         <f>IF(状态转换表!C35=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C35=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D34" s="28" t="str">
         <f>IF(状态转换表!D35=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D35=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>IF(状态转换表!E35=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E35=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="F34" s="30" t="str">
         <f>IF(状态转换表!G35&lt;&gt;"",IF(状态转换表!G35=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G35=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -6756,15 +6842,15 @@
       </c>
       <c r="N34" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
       <c r="O34" s="1" t="str">
         <f>IF(状态转换表!P35=1,$N34&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="P34" s="1" t="str">
         <f>IF(状态转换表!Q35=1,$N34&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="Q34" s="2" t="str">
         <f>IF(状态转换表!R35=1,$N34&amp;"+","")</f>
@@ -6772,33 +6858,33 @@
       </c>
       <c r="R34" s="2" t="str">
         <f>IF(状态转换表!S35=1,$N34&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
       <c r="S34" s="2" t="str">
         <f>IF(状态转换表!T35=1,$N34&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="str">
         <f>IF(状态转换表!A36=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A36=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B35" s="24" t="str">
         <f>IF(状态转换表!B36=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B36=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C35" s="28" t="str">
         <f>IF(状态转换表!C36=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C36=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D35" s="28" t="str">
         <f>IF(状态转换表!D36=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D36=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>IF(状态转换表!E36=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E36=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F35" s="30" t="str">
         <f>IF(状态转换表!G36&lt;&gt;"",IF(状态转换表!G36=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G36=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -6834,7 +6920,7 @@
       </c>
       <c r="N35" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;S1&amp;S0</v>
       </c>
       <c r="O35" s="1" t="str">
         <f>IF(状态转换表!P36=1,$N35&amp;"+","")</f>
@@ -6860,23 +6946,23 @@
     <row r="36" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="str">
         <f>IF(状态转换表!A37=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A37=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B36" s="24" t="str">
         <f>IF(状态转换表!B37=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B37=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C36" s="28" t="str">
         <f>IF(状态转换表!C37=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C37=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D36" s="28" t="str">
         <f>IF(状态转换表!D37=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D37=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>IF(状态转换表!E37=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E37=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="F36" s="30" t="str">
         <f>IF(状态转换表!G37&lt;&gt;"",IF(状态转换表!G37=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G37=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -6904,7 +6990,7 @@
       </c>
       <c r="L36" s="28" t="str">
         <f>IF(状态转换表!M37&lt;&gt;"",IF(状态转换表!M37=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M37=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M36" s="37" t="str">
         <f>IF(状态转换表!N37&lt;&gt;"",IF(状态转换表!N37=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N37=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
@@ -6912,15 +6998,15 @@
       </c>
       <c r="N36" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR</v>
       </c>
       <c r="O36" s="1" t="str">
         <f>IF(状态转换表!P37=1,$N36&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="P36" s="1" t="str">
         <f>IF(状态转换表!Q37=1,$N36&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="Q36" s="2" t="str">
         <f>IF(状态转换表!R37=1,$N36&amp;"+","")</f>
@@ -6928,7 +7014,7 @@
       </c>
       <c r="R36" s="2" t="str">
         <f>IF(状态转换表!S37=1,$N36&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="S36" s="2" t="str">
         <f>IF(状态转换表!T37=1,$N36&amp;"+","")</f>
@@ -6938,23 +7024,23 @@
     <row r="37" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="str">
         <f>IF(状态转换表!A38=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A38=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B37" s="24" t="str">
         <f>IF(状态转换表!B38=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B38=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C37" s="28" t="str">
         <f>IF(状态转换表!C38=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C38=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="D37" s="28" t="str">
         <f>IF(状态转换表!D38=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D38=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>IF(状态转换表!E38=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E38=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F37" s="30" t="str">
         <f>IF(状态转换表!G38&lt;&gt;"",IF(状态转换表!G38=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G38=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -6982,7 +7068,7 @@
       </c>
       <c r="L37" s="28" t="str">
         <f>IF(状态转换表!M38&lt;&gt;"",IF(状态转换表!M38=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M38=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M37" s="37" t="str">
         <f>IF(状态转换表!N38&lt;&gt;"",IF(状态转换表!N38=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N38=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
@@ -6990,15 +7076,15 @@
       </c>
       <c r="N37" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR</v>
       </c>
       <c r="O37" s="1" t="str">
         <f>IF(状态转换表!P38=1,$N37&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="P37" s="1" t="str">
         <f>IF(状态转换表!Q38=1,$N37&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="Q37" s="2" t="str">
         <f>IF(状态转换表!R38=1,$N37&amp;"+","")</f>
@@ -7006,7 +7092,7 @@
       </c>
       <c r="R37" s="2" t="str">
         <f>IF(状态转换表!S38=1,$N37&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="S37" s="2" t="str">
         <f>IF(状态转换表!T38=1,$N37&amp;"+","")</f>
@@ -7016,23 +7102,23 @@
     <row r="38" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="str">
         <f>IF(状态转换表!A39=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A39=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B38" s="24" t="str">
         <f>IF(状态转换表!B39=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B39=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C38" s="28" t="str">
         <f>IF(状态转换表!C39=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C39=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="D38" s="28" t="str">
         <f>IF(状态转换表!D39=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D39=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>IF(状态转换表!E39=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E39=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F38" s="30" t="str">
         <f>IF(状态转换表!G39&lt;&gt;"",IF(状态转换表!G39=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G39=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7060,15 +7146,15 @@
       </c>
       <c r="L38" s="28" t="str">
         <f>IF(状态转换表!M39&lt;&gt;"",IF(状态转换表!M39=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M39=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~IR&amp;</v>
       </c>
       <c r="M38" s="37" t="str">
         <f>IF(状态转换表!N39&lt;&gt;"",IF(状态转换表!N39=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N39=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~EQUAL&amp;</v>
       </c>
       <c r="N38" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;~IR&amp;~EQUAL</v>
       </c>
       <c r="O38" s="1" t="str">
         <f>IF(状态转换表!P39=1,$N38&amp;"+","")</f>
@@ -7094,23 +7180,23 @@
     <row r="39" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="str">
         <f>IF(状态转换表!A40=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A40=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B39" s="24" t="str">
         <f>IF(状态转换表!B40=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B40=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C39" s="28" t="str">
         <f>IF(状态转换表!C40=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C40=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="D39" s="28" t="str">
         <f>IF(状态转换表!D40=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D40=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>IF(状态转换表!E40=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E40=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F39" s="30" t="str">
         <f>IF(状态转换表!G40&lt;&gt;"",IF(状态转换表!G40=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G40=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7138,19 +7224,19 @@
       </c>
       <c r="L39" s="28" t="str">
         <f>IF(状态转换表!M40&lt;&gt;"",IF(状态转换表!M40=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M40=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~IR&amp;</v>
       </c>
       <c r="M39" s="37" t="str">
         <f>IF(状态转换表!N40&lt;&gt;"",IF(状态转换表!N40=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N40=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>EQUAL&amp;</v>
       </c>
       <c r="N39" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;~IR&amp;EQUAL</v>
       </c>
       <c r="O39" s="1" t="str">
         <f>IF(状态转换表!P40=1,$N39&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;~IR&amp;EQUAL+</v>
       </c>
       <c r="P39" s="1" t="str">
         <f>IF(状态转换表!Q40=1,$N39&amp;"+","")</f>
@@ -7172,23 +7258,23 @@
     <row r="40" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="str">
         <f>IF(状态转换表!A41=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A41=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B40" s="24" t="str">
         <f>IF(状态转换表!B41=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B41=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C40" s="28" t="str">
         <f>IF(状态转换表!C41=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C41=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="D40" s="28" t="str">
         <f>IF(状态转换表!D41=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D41=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>IF(状态转换表!E41=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E41=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F40" s="30" t="str">
         <f>IF(状态转换表!G41&lt;&gt;"",IF(状态转换表!G41=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G41=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7216,23 +7302,23 @@
       </c>
       <c r="L40" s="28" t="str">
         <f>IF(状态转换表!M41&lt;&gt;"",IF(状态转换表!M41=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M41=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M40" s="37" t="str">
         <f>IF(状态转换表!N41&lt;&gt;"",IF(状态转换表!N41=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N41=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>~EQUAL&amp;</v>
       </c>
       <c r="N40" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL</v>
       </c>
       <c r="O40" s="1" t="str">
         <f>IF(状态转换表!P41=1,$N40&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+</v>
       </c>
       <c r="P40" s="1" t="str">
         <f>IF(状态转换表!Q41=1,$N40&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+</v>
       </c>
       <c r="Q40" s="2" t="str">
         <f>IF(状态转换表!R41=1,$N40&amp;"+","")</f>
@@ -7240,7 +7326,7 @@
       </c>
       <c r="R40" s="2" t="str">
         <f>IF(状态转换表!S41=1,$N40&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+</v>
       </c>
       <c r="S40" s="2" t="str">
         <f>IF(状态转换表!T41=1,$N40&amp;"+","")</f>
@@ -7250,23 +7336,23 @@
     <row r="41" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="str">
         <f>IF(状态转换表!A42=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A42=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S4&amp;</v>
       </c>
       <c r="B41" s="24" t="str">
         <f>IF(状态转换表!B42=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B42=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C41" s="28" t="str">
         <f>IF(状态转换表!C42=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C42=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="D41" s="28" t="str">
         <f>IF(状态转换表!D42=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D42=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>IF(状态转换表!E42=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E42=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F41" s="30" t="str">
         <f>IF(状态转换表!G42&lt;&gt;"",IF(状态转换表!G42=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G42=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7294,19 +7380,19 @@
       </c>
       <c r="L41" s="28" t="str">
         <f>IF(状态转换表!M42&lt;&gt;"",IF(状态转换表!M42=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M42=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M41" s="37" t="str">
         <f>IF(状态转换表!N42&lt;&gt;"",IF(状态转换表!N42=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N42=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>EQUAL&amp;</v>
       </c>
       <c r="N41" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;EQUAL</v>
       </c>
       <c r="O41" s="1" t="str">
         <f>IF(状态转换表!P42=1,$N41&amp;"+","")</f>
-        <v/>
+        <v>~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;EQUAL+</v>
       </c>
       <c r="P41" s="1" t="str">
         <f>IF(状态转换表!Q42=1,$N41&amp;"+","")</f>
@@ -7328,23 +7414,23 @@
     <row r="42" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="str">
         <f>IF(状态转换表!A43=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A43=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B42" s="24" t="str">
         <f>IF(状态转换表!B43=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B43=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="C42" s="28" t="str">
         <f>IF(状态转换表!C43=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C43=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D42" s="28" t="str">
         <f>IF(状态转换表!D43=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D43=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S1&amp;</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>IF(状态转换表!E43=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E43=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="F42" s="30" t="str">
         <f>IF(状态转换表!G43&lt;&gt;"",IF(状态转换表!G43=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G43=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7372,7 +7458,7 @@
       </c>
       <c r="L42" s="28" t="str">
         <f>IF(状态转换表!M43&lt;&gt;"",IF(状态转换表!M43=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M43=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M42" s="37" t="str">
         <f>IF(状态转换表!N43&lt;&gt;"",IF(状态转换表!N43=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N43=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
@@ -7380,15 +7466,15 @@
       </c>
       <c r="N42" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR</v>
       </c>
       <c r="O42" s="1" t="str">
         <f>IF(状态转换表!P43=1,$N42&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="P42" s="1" t="str">
         <f>IF(状态转换表!Q43=1,$N42&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="Q42" s="2" t="str">
         <f>IF(状态转换表!R43=1,$N42&amp;"+","")</f>
@@ -7396,7 +7482,7 @@
       </c>
       <c r="R42" s="2" t="str">
         <f>IF(状态转换表!S43=1,$N42&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="S42" s="2" t="str">
         <f>IF(状态转换表!T43=1,$N42&amp;"+","")</f>
@@ -7406,23 +7492,23 @@
     <row r="43" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="str">
         <f>IF(状态转换表!A44=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A44=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B43" s="24" t="str">
         <f>IF(状态转换表!B44=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B44=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S3&amp;</v>
       </c>
       <c r="C43" s="28" t="str">
         <f>IF(状态转换表!C44=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C44=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S2&amp;</v>
       </c>
       <c r="D43" s="28" t="str">
         <f>IF(状态转换表!D44=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D44=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>IF(状态转换表!E44=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E44=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F43" s="30" t="str">
         <f>IF(状态转换表!G44&lt;&gt;"",IF(状态转换表!G44=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G44=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7450,7 +7536,7 @@
       </c>
       <c r="L43" s="28" t="str">
         <f>IF(状态转换表!M44&lt;&gt;"",IF(状态转换表!M44=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M44=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M43" s="37" t="str">
         <f>IF(状态转换表!N44&lt;&gt;"",IF(状态转换表!N44=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N44=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
@@ -7458,15 +7544,15 @@
       </c>
       <c r="N43" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR</v>
       </c>
       <c r="O43" s="1" t="str">
         <f>IF(状态转换表!P44=1,$N43&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="P43" s="1" t="str">
         <f>IF(状态转换表!Q44=1,$N43&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="Q43" s="2" t="str">
         <f>IF(状态转换表!R44=1,$N43&amp;"+","")</f>
@@ -7474,7 +7560,7 @@
       </c>
       <c r="R43" s="2" t="str">
         <f>IF(状态转换表!S44=1,$N43&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="S43" s="2" t="str">
         <f>IF(状态转换表!T44=1,$N43&amp;"+","")</f>
@@ -7484,23 +7570,23 @@
     <row r="44" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="str">
         <f>IF(状态转换表!A45=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A45=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B44" s="24" t="str">
         <f>IF(状态转换表!B45=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B45=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C44" s="28" t="str">
         <f>IF(状态转换表!C45=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C45=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D44" s="28" t="str">
         <f>IF(状态转换表!D45=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D45=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>IF(状态转换表!E45=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E45=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S0&amp;</v>
       </c>
       <c r="F44" s="30" t="str">
         <f>IF(状态转换表!G45&lt;&gt;"",IF(状态转换表!G45=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G45=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7528,7 +7614,7 @@
       </c>
       <c r="L44" s="28" t="str">
         <f>IF(状态转换表!M45&lt;&gt;"",IF(状态转换表!M45=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M45=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M44" s="37" t="str">
         <f>IF(状态转换表!N45&lt;&gt;"",IF(状态转换表!N45=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N45=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
@@ -7536,15 +7622,15 @@
       </c>
       <c r="N44" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR</v>
       </c>
       <c r="O44" s="1" t="str">
         <f>IF(状态转换表!P45=1,$N44&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="P44" s="1" t="str">
         <f>IF(状态转换表!Q45=1,$N44&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="Q44" s="2" t="str">
         <f>IF(状态转换表!R45=1,$N44&amp;"+","")</f>
@@ -7552,7 +7638,7 @@
       </c>
       <c r="R44" s="2" t="str">
         <f>IF(状态转换表!S45=1,$N44&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+</v>
       </c>
       <c r="S44" s="2" t="str">
         <f>IF(状态转换表!T45=1,$N44&amp;"+","")</f>
@@ -7562,23 +7648,23 @@
     <row r="45" spans="1:19" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="str">
         <f>IF(状态转换表!A46=1,状态转换表!A$2&amp;"&amp;",IF(状态转换表!A46=0,"~"&amp;状态转换表!A$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S4&amp;</v>
       </c>
       <c r="B45" s="24" t="str">
         <f>IF(状态转换表!B46=1,状态转换表!B$2&amp;"&amp;",IF(状态转换表!B46=0,"~"&amp;状态转换表!B$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S3&amp;</v>
       </c>
       <c r="C45" s="28" t="str">
         <f>IF(状态转换表!C46=1,状态转换表!C$2&amp;"&amp;",IF(状态转换表!C46=0,"~"&amp;状态转换表!C$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S2&amp;</v>
       </c>
       <c r="D45" s="28" t="str">
         <f>IF(状态转换表!D46=1,状态转换表!D$2&amp;"&amp;",IF(状态转换表!D46=0,"~"&amp;状态转换表!D$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>~S1&amp;</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>IF(状态转换表!E46=1,状态转换表!E$2&amp;"&amp;",IF(状态转换表!E46=0,"~"&amp;状态转换表!E$2&amp;"&amp;",""))</f>
-        <v/>
+        <v>S0&amp;</v>
       </c>
       <c r="F45" s="30" t="str">
         <f>IF(状态转换表!G46&lt;&gt;"",IF(状态转换表!G46=1,状态转换表!G$2&amp;"&amp;",IF(状态转换表!G46=0,"~"&amp;状态转换表!G$2&amp;"&amp;","")),"")</f>
@@ -7606,7 +7692,7 @@
       </c>
       <c r="L45" s="28" t="str">
         <f>IF(状态转换表!M46&lt;&gt;"",IF(状态转换表!M46=1,状态转换表!M$2&amp;"&amp;",IF(状态转换表!M46=0,"~"&amp;状态转换表!M$2&amp;"&amp;","")),"")</f>
-        <v/>
+        <v>IR&amp;</v>
       </c>
       <c r="M45" s="37" t="str">
         <f>IF(状态转换表!N46&lt;&gt;"",IF(状态转换表!N46=1,状态转换表!N$2&amp;"&amp;",IF(状态转换表!N46=0,"~"&amp;状态转换表!N$2&amp;"&amp;","")),"")</f>
@@ -7614,15 +7700,15 @@
       </c>
       <c r="N45" s="36" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR</v>
       </c>
       <c r="O45" s="1" t="str">
         <f>IF(状态转换表!P46=1,$N45&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="P45" s="1" t="str">
         <f>IF(状态转换表!Q46=1,$N45&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="Q45" s="2" t="str">
         <f>IF(状态转换表!R46=1,$N45&amp;"+","")</f>
@@ -7630,7 +7716,7 @@
       </c>
       <c r="R45" s="2" t="str">
         <f>IF(状态转换表!S46=1,$N45&amp;"+","")</f>
-        <v/>
+        <v>S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="S45" s="2" t="str">
         <f>IF(状态转换表!T46=1,$N45&amp;"+","")</f>
@@ -7812,11 +7898,11 @@
       <c r="N48" s="72"/>
       <c r="O48" s="3" t="str">
         <f>IF(LEN(O49)&gt;1,LEFT(O49,LEN(O49)-1),"")</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;EQUAL+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;~S2&amp;S1&amp;S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;EQUAL+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;~S2&amp;S1&amp;S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;~IR&amp;EQUAL+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;EQUAL+S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR</v>
       </c>
       <c r="P48" s="3" t="str">
         <f>IF(LEN(P49)&gt;1,LEFT(P49,LEN(P49)-1),"")</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR</v>
       </c>
       <c r="Q48" s="3" t="str">
         <f>IF(LEN(Q49)&gt;1,LEFT(Q49,LEN(Q49)-1),"")</f>
@@ -7824,11 +7910,11 @@
       </c>
       <c r="R48" s="3" t="str">
         <f>IF(LEN(R49)&gt;1,LEFT(R49,LEN(R49)-1),"")</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;~S3&amp;S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;~S3&amp;S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR</v>
       </c>
       <c r="S48" s="5" t="str">
         <f>IF(LEN(S49)&gt;1,LEFT(S49,LEN(S49)-1),"")</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+S4&amp;S3&amp;~S2&amp;S1&amp;~S0</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7848,11 +7934,11 @@
       <c r="N49" s="38"/>
       <c r="O49" s="4" t="str">
         <f>CONCATENATE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11,O12,O13,O14,O15,O16,O17,O18,O19,O20,O21,O22,O23,O24,O25,O26,O27,O28,O29,O30,O31,O32,O33,O34,O35,O36,O37,O38,O39,O40,O41,O42,O43,O44,O45,O46,O47)</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;EQUAL+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;~S2&amp;S1&amp;S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0+</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;EQUAL+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;~S2&amp;S1&amp;S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;~IR&amp;EQUAL+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;EQUAL+S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="P49" s="4" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47)</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0+</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="Q49" s="4" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47)</f>
@@ -7860,11 +7946,11 @@
       </c>
       <c r="R49" s="4" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47)</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;~S3&amp;S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;BEQ+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ADDI+~S4&amp;~S3&amp;S2&amp;~S1&amp;S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+~S4&amp;S3&amp;S2&amp;~S1&amp;S0&amp;IR+~S4&amp;S3&amp;S2&amp;S1&amp;S0&amp;IR&amp;~EQUAL+S4&amp;~S3&amp;~S2&amp;S1&amp;~S0&amp;IR+S4&amp;~S3&amp;S2&amp;~S1&amp;S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;~S0&amp;IR+S4&amp;S3&amp;~S2&amp;~S1&amp;S0&amp;IR+</v>
       </c>
       <c r="S49" s="4" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47)</f>
-        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+</v>
+        <v>~S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SW+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;SLT+~S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;S3&amp;~S2&amp;S1&amp;~S0+~S4&amp;S3&amp;S2&amp;~S1&amp;~S0+~S4&amp;S3&amp;S2&amp;S1&amp;~S0+S4&amp;~S3&amp;~S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;~S1&amp;~S0+S4&amp;~S3&amp;S2&amp;S1&amp;~S0+~S4&amp;~S3&amp;~S2&amp;S1&amp;S0&amp;ERET+S4&amp;S3&amp;~S2&amp;S1&amp;~S0+</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="16.2" x14ac:dyDescent="0.25">
@@ -7907,7 +7993,7 @@
       <formula>NOT(ISERROR(SEARCH("1",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations xWindow="1569" yWindow="639" count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位表达式" prompt="次态状态位逻辑表达式，复制到Logisim即可" sqref="O48:S48" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="S54:S1048576 S49:S51 O49:R1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位生成条件最小项" sqref="O1:S47" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
